--- a/Pics/!!!LIST OF GRAFICS.xlsx
+++ b/Pics/!!!LIST OF GRAFICS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291BFB76-3D29-421A-9902-417289D86EC5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E3DBF3-CF77-4E60-849C-346EA2D4E7B4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <t>mouth</t>
   </si>
   <si>
-    <t>Stk.</t>
-  </si>
-  <si>
     <t>shop-box</t>
   </si>
   <si>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t>accessoires</t>
+  </si>
+  <si>
+    <t>Stk. Fertig</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,39 +411,39 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -496,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -505,19 +505,19 @@
         <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.5" x14ac:dyDescent="0.6">
